--- a/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Chairman Davis.    And thank you, Dr. Morris, for being with us here today.    In recent years, the way the average consumer thinks about food has undergone a remarkable cultural transformation. Within a relatively short period of time, we have witnessed consumers rapidly moving from having little interest in products and where their food comes from to today's consumers seeing food as an exciting possibility, and with cooking now part of personal discovery.    Most importantly, both for the consumer and for agriculture, food is no longer something that just appears on grocery shelves. It is inspected, scrutinized, and given careful thought. Consumers are the real drivers behind today's individualistic food environment, and it is within this newly-developed foodie culture that the U.S. production agriculture now finds itself. Like most market evolution, there is both good news and not so good news.    The good news is food entrepreneurs, both producers and processors, have an increasingly diverse consumer base for which to tailor their products. The not-so-good news is an ever-growing and potentially confusing array of production, processing, and questions. And while more information for the consumer is a good thing, we need to ensure that this information is displayed in an easy to understand and accurate way. And we also need to ensure that the information provided is grounded in sound science.    I am pleased that the USDA's Agricultural Marketing Service is here today because of their expertise in overseeing these emerging labels. We need to know how to best deliver information to the consumer, what is working now, what isn't, and how we continually improve the current system. As the Committee exercises its responsibility in the area of marketing and labeling claims across the board, but including labels related to genetically engineered crops, it is critical that we all have a full understanding of the expertise that exists within AMS should Congress choose to move forward with any sort of new label.    So, Mr. Chairman, I look forward to hearing from our witness today on this important matter, and I yield back.    The Chairman. Thank you.    The chair would request that other Members submit their opening statements for the record so that the witness may begin his testimony and to ensure that there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who are present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate the Members' understanding.    The witness is reminded to limit his oral presentation to 5 minutes. Your written statement will be included in the record.    I would like to welcome, once again, our witness, Dr. Craig Morris, Deputy Administrator, Livestock Poultry and Seed Program, at the Agricultural Marketing Service of the USDA based here in Washington, D.C.    Dr. Morris, please begin when you are ready.            STATEMENT OF CRAIG MORRIS, Ph.D., DEPUTY</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Morris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Morris. Chairman Davis, Ranking Member DelBene, and Members of the Subcommittee, thank you for the opportunity to testify today. The position that I serve is as the Deputy Administrator of Livestock Poultry and Seed Program for USDA Agricultural Marketing Service, or AMS, whose mission is to facilitate the efficient fair marketing of U.S. agricultural products. Within AMS the Quality Systems Verification Programs, or QSVPs, offered to the agricultural industry, there are a family of user-fee funded, audit-based, third-party verification services. There are a number of QSVPs, including those known as export verification programs, or EV programs, which are negotiated between the United States and foreign governments to ensure U.S. products meet the requirements of foreign buyers and keep U.S. products competitive in an international marketplace.    These EV programs are vital to reopening foreign markets to U.S. beef after our nation's first case of bovine spongiform encephalopathy. However, the QSVP I wish to focus on today is the highly visible USDA Process Verified Progam, or PVP. Currently, my program audits 51 different PVP companies, with approximately 190 different process verified marketing claims. Several PVP companies have labels in the marketplace featuring various market claims associated with the PVP shield. Examples of these marketing claims include use of antibiotics in animal agriculture, product availability, product palatability attributes such as tenderness and employee training in areas of animal welfare. Transparency of the standard behind the marketing claim and the knowledge that USDA is an independent auditor are the two key aspects of the PVP.    Companies establish their criteria they want verified, write a quality management system program manual, then undergo rigorous audits by AMS to ensure that they are adhering to the standards they set for themselves.    Recently, AMS approved a PVP for a company to verify their marketing claim that the food grade corn and soybeans processed at one of their facilities are tested to ensure they are at least 99.1 percent free of traits that would indicate genetic engineering and to market their products as non-GMO/GE.    I also think it is important to point out what the PVP program does not do. The PVP program is a Process Verified Progam, and not a product verification program. In the example of the non-GMO/GE PVP mentioned above, this means that there is no USDA non-GMO/GE marketing claim standard. In other words, USDA has not established a standard for what merits a non-GMO/GE marketing claim. Instead, the PVP verifies that the standard accompanied established for itself is transparent and being adhered to. By transparent, I mean that the standard behind the marketing claim is detailed on the USDA website, such as the specific GE traits being tested for, what testing methods are being used, the competency of those performing the tests, and that the USDA PVP website is available to any interested party to learn more about the basic of any PVP marketing claim.    Second, the PVP is not a truth-in-food labeling program. Within the U.S. Government, with narrow statutory exception, regulatory bodies at the Food and Drug Administration and other agencies, such as the Food Safety and Inspection Service for certain commodities and not AMS are charged with ensuring that all food labeling claims, regardless of if they are associated with a PVP or not are truthful and not misleading. We have seen and heard that there is some confusion regarding how this non-GMO/GE PVP relates to AMS's administration of the National Organic Program, or NOP. Therefore, I would like to offer some background differentiating those two programs.    The NOP is a regulatory program within AMS that establishes national organic standards and protects the integrity of the USDA organic label through certification and proper enforcement. As authorized by Congress, under the Organic Foods Production Act, these organic standards assure consumers that products with the USDA seal meet consistent uniform standards.    By contrast, USDA has not established standards for non-GMO/GE claims. So, although the non-GMO/GE PVP outlined earlier does provide transparency and third-party verification, it is not establishing a national standard for what merits a non-GMO/GE claim like we have done for the National Organic Program organic claims.    In conclusion, AMS's audit-based services such as the USDA PVP allow producers to assure customers of their ability to provide consistent quality products, or services, but do not establish national standards for marketing claims. Again, thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And, Dr. Morris, you hit a little bit on the process versus product issue. Could you expand on that briefly for us?</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you. And my apologies for being late. I missed some of your testimony. In general, there has been a lot of discussion. And when people meet with me, there is this question of voluntary versus mandatory. And you may have addressed that already in some of your comments, but do you have any thoughts on that?</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you, Mr. Chairman.    And thank you, Dr. Morris, for being here. I appreciate all the work that you do. This is an interesting hearing, in the context of something that we are beginning to talk about in this Committee, and in other committees, about the issue of GMO labeling. Voluntary versus mandatory, or only voluntary non-GMO labeling. Quite frankly, I am puzzled by this debate, because I fall on the side of the fact that if a majority of people in this country want there to be GMO labeling so they know what they are buying, then I am for it. I am not making any judgment about the safety or the quality of the food. We have all been eating GMOs for a long time, but if a majority of people want to know that information, why shouldn't we give it to them?    There is a recent poll from the Mellman Group that found that Americans overwhelmingly favor requiring labels on GMO food: 71 percent of Americans strongly favor GMO labeling. And I guess the argument against the voluntary stuff is that some might do it, some might not, but it just makes it more difficult for the consumer in my mind. I am not asking you to take a position, but if you are going to come up with a standard for what is non-GMO, wouldn't it just be simpler for the consumer to have one label that indicates whether something contains GMOs?</t>
   </si>
   <si>
@@ -284,9 +269,6 @@
   </si>
   <si>
     <t>412660</t>
-  </si>
-  <si>
-    <t>Dan Newhouse</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Newhouse. So I will make up some time a little bit there. Thank you, Mr. Chairman, I appreciate that. I apologize for my lateness, but I can assure you, I was doing good work.    I appreciate you being here, Dr. Morris. I don't really have a question as such, so I won't take much time. But I just wanted to expound on what I understand my colleague from the State of Washington and our Ranking Member, Ms. DelBene, was asking, if I could.    Under current USDA regulation, is, in fact, the case that biotech products are not allowed to be certified organic? I would like to read an excerpt from the USDA blog from a post titled Organic 101, Can GMOs Be Used in Organic Products? And that was dated May 17, 2013. So if I may, just to enter it into the record.    ``The use of genetic engineering, or genetically modified organisms (GMOs), is prohibited in organic products. This means an organic farmer can't plant GMO seeds, an organic cow can't eat GMO alfalfa or corn, and an organic soup producer can't use any GMO ingredients.''    The reason, Mr. Chairman, that I raise this point is because it is frustrating to me that USDA already has this, what I would call a great voluntary tool for consumers to know what is in the food and products that they purchase, but that some jurisdictions feel compelled to impose duplicative, costly, and mandatory burdens on consumers and producers that, as far as can be seen from the USDA's own blog, add no additional benefit. So ultimately, I believe this Congress and this Committee will likely have to consider legislation to ensure that our farmers, ranchers, growers, producers, and families aren't harmed by these costly unworkable rules. And that is not necessarily a question, but just a statement, and I wanted to make sure I got that in the record.    And with that, Mr. Chairman, I would yield back.    The Chairman. Let the record show the gentleman yielded back 3 minutes of time.    Thank you, Mr. Newhouse.    And I want to go ahead and get into a few more questions with you, Dr. Morris. And we are waiting on possibly another Member to get here to ask a few questions.    Obviously, there has been a lot of discussion about H.R. 1599, and I would like to know, has the USDA taken a look at the USDA-related portions of H.R. 1599, the Pompeo-Butterfield bill?</t>
@@ -712,11 +694,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -736,13 +716,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -762,13 +740,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -788,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -814,13 +788,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -840,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -866,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -892,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -918,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -944,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -970,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -996,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1022,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1048,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1074,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1102,11 +1054,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1126,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1154,11 +1102,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1178,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1206,11 +1150,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1230,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1258,11 +1198,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1282,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1310,11 +1246,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1334,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1362,11 +1294,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1386,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1412,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1438,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1464,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1490,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1516,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1542,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1568,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1594,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1620,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1646,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1672,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1698,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1724,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1750,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1776,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1802,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1828,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1854,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1880,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1906,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1932,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1958,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1984,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2010,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2036,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2062,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2088,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2114,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2140,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2166,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2192,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2218,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2244,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2270,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2296,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2322,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2348,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2374,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2400,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2426,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2452,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2478,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2504,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2530,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2556,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2582,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2608,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2636,11 +2470,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2660,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2688,11 +2518,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,33 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Chairman Davis.    And thank you, Dr. Morris, for being with us here today.    In recent years, the way the average consumer thinks about food has undergone a remarkable cultural transformation. Within a relatively short period of time, we have witnessed consumers rapidly moving from having little interest in products and where their food comes from to today's consumers seeing food as an exciting possibility, and with cooking now part of personal discovery.    Most importantly, both for the consumer and for agriculture, food is no longer something that just appears on grocery shelves. It is inspected, scrutinized, and given careful thought. Consumers are the real drivers behind today's individualistic food environment, and it is within this newly-developed foodie culture that the U.S. production agriculture now finds itself. Like most market evolution, there is both good news and not so good news.    The good news is food entrepreneurs, both producers and processors, have an increasingly diverse consumer base for which to tailor their products. The not-so-good news is an ever-growing and potentially confusing array of production, processing, and questions. And while more information for the consumer is a good thing, we need to ensure that this information is displayed in an easy to understand and accurate way. And we also need to ensure that the information provided is grounded in sound science.    I am pleased that the USDA's Agricultural Marketing Service is here today because of their expertise in overseeing these emerging labels. We need to know how to best deliver information to the consumer, what is working now, what isn't, and how we continually improve the current system. As the Committee exercises its responsibility in the area of marketing and labeling claims across the board, but including labels related to genetically engineered crops, it is critical that we all have a full understanding of the expertise that exists within AMS should Congress choose to move forward with any sort of new label.    So, Mr. Chairman, I look forward to hearing from our witness today on this important matter, and I yield back.    The Chairman. Thank you.    The chair would request that other Members submit their opening statements for the record so that the witness may begin his testimony and to ensure that there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who are present at the start of the hearing. After that, Members will be recognized in order of their arrival. I appreciate the Members' understanding.    The witness is reminded to limit his oral presentation to 5 minutes. Your written statement will be included in the record.    I would like to welcome, once again, our witness, Dr. Craig Morris, Deputy Administrator, Livestock Poultry and Seed Program, at the Agricultural Marketing Service of the USDA based here in Washington, D.C.    Dr. Morris, please begin when you are ready.            STATEMENT OF CRAIG MORRIS, Ph.D., DEPUTY</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Morris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Morris. Chairman Davis, Ranking Member DelBene, and Members of the Subcommittee, thank you for the opportunity to testify today. The position that I serve is as the Deputy Administrator of Livestock Poultry and Seed Program for USDA Agricultural Marketing Service, or AMS, whose mission is to facilitate the efficient fair marketing of U.S. agricultural products. Within AMS the Quality Systems Verification Programs, or QSVPs, offered to the agricultural industry, there are a family of user-fee funded, audit-based, third-party verification services. There are a number of QSVPs, including those known as export verification programs, or EV programs, which are negotiated between the United States and foreign governments to ensure U.S. products meet the requirements of foreign buyers and keep U.S. products competitive in an international marketplace.    These EV programs are vital to reopening foreign markets to U.S. beef after our nation's first case of bovine spongiform encephalopathy. However, the QSVP I wish to focus on today is the highly visible USDA Process Verified Progam, or PVP. Currently, my program audits 51 different PVP companies, with approximately 190 different process verified marketing claims. Several PVP companies have labels in the marketplace featuring various market claims associated with the PVP shield. Examples of these marketing claims include use of antibiotics in animal agriculture, product availability, product palatability attributes such as tenderness and employee training in areas of animal welfare. Transparency of the standard behind the marketing claim and the knowledge that USDA is an independent auditor are the two key aspects of the PVP.    Companies establish their criteria they want verified, write a quality management system program manual, then undergo rigorous audits by AMS to ensure that they are adhering to the standards they set for themselves.    Recently, AMS approved a PVP for a company to verify their marketing claim that the food grade corn and soybeans processed at one of their facilities are tested to ensure they are at least 99.1 percent free of traits that would indicate genetic engineering and to market their products as non-GMO/GE.    I also think it is important to point out what the PVP program does not do. The PVP program is a Process Verified Progam, and not a product verification program. In the example of the non-GMO/GE PVP mentioned above, this means that there is no USDA non-GMO/GE marketing claim standard. In other words, USDA has not established a standard for what merits a non-GMO/GE marketing claim. Instead, the PVP verifies that the standard accompanied established for itself is transparent and being adhered to. By transparent, I mean that the standard behind the marketing claim is detailed on the USDA website, such as the specific GE traits being tested for, what testing methods are being used, the competency of those performing the tests, and that the USDA PVP website is available to any interested party to learn more about the basic of any PVP marketing claim.    Second, the PVP is not a truth-in-food labeling program. Within the U.S. Government, with narrow statutory exception, regulatory bodies at the Food and Drug Administration and other agencies, such as the Food Safety and Inspection Service for certain commodities and not AMS are charged with ensuring that all food labeling claims, regardless of if they are associated with a PVP or not are truthful and not misleading. We have seen and heard that there is some confusion regarding how this non-GMO/GE PVP relates to AMS's administration of the National Organic Program, or NOP. Therefore, I would like to offer some background differentiating those two programs.    The NOP is a regulatory program within AMS that establishes national organic standards and protects the integrity of the USDA organic label through certification and proper enforcement. As authorized by Congress, under the Organic Foods Production Act, these organic standards assure consumers that products with the USDA seal meet consistent uniform standards.    By contrast, USDA has not established standards for non-GMO/GE claims. So, although the non-GMO/GE PVP outlined earlier does provide transparency and third-party verification, it is not establishing a national standard for what merits a non-GMO/GE claim like we have done for the National Organic Program organic claims.    In conclusion, AMS's audit-based services such as the USDA PVP allow producers to assure customers of their ability to provide consistent quality products, or services, but do not establish national standards for marketing claims. Again, thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And, Dr. Morris, you hit a little bit on the process versus product issue. Could you expand on that briefly for us?</t>
   </si>
   <si>
@@ -139,6 +157,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you. And my apologies for being late. I missed some of your testimony. In general, there has been a lot of discussion. And when people meet with me, there is this question of voluntary versus mandatory. And you may have addressed that already in some of your comments, but do you have any thoughts on that?</t>
   </si>
   <si>
@@ -169,6 +193,12 @@
     <t>400263</t>
   </si>
   <si>
+    <t>McGovern</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you, Mr. Chairman.    And thank you, Dr. Morris, for being here. I appreciate all the work that you do. This is an interesting hearing, in the context of something that we are beginning to talk about in this Committee, and in other committees, about the issue of GMO labeling. Voluntary versus mandatory, or only voluntary non-GMO labeling. Quite frankly, I am puzzled by this debate, because I fall on the side of the fact that if a majority of people in this country want there to be GMO labeling so they know what they are buying, then I am for it. I am not making any judgment about the safety or the quality of the food. We have all been eating GMOs for a long time, but if a majority of people want to know that information, why shouldn't we give it to them?    There is a recent poll from the Mellman Group that found that Americans overwhelmingly favor requiring labels on GMO food: 71 percent of Americans strongly favor GMO labeling. And I guess the argument against the voluntary stuff is that some might do it, some might not, but it just makes it more difficult for the consumer in my mind. I am not asking you to take a position, but if you are going to come up with a standard for what is non-GMO, wouldn't it just be simpler for the consumer to have one label that indicates whether something contains GMOs?</t>
   </si>
   <si>
@@ -269,6 +299,12 @@
   </si>
   <si>
     <t>412660</t>
+  </si>
+  <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Newhouse. So I will make up some time a little bit there. Thank you, Mr. Chairman, I appreciate that. I apologize for my lateness, but I can assure you, I was doing good work.    I appreciate you being here, Dr. Morris. I don't really have a question as such, so I won't take much time. But I just wanted to expound on what I understand my colleague from the State of Washington and our Ranking Member, Ms. DelBene, was asking, if I could.    Under current USDA regulation, is, in fact, the case that biotech products are not allowed to be certified organic? I would like to read an excerpt from the USDA blog from a post titled Organic 101, Can GMOs Be Used in Organic Products? And that was dated May 17, 2013. So if I may, just to enter it into the record.    ``The use of genetic engineering, or genetically modified organisms (GMOs), is prohibited in organic products. This means an organic farmer can't plant GMO seeds, an organic cow can't eat GMO alfalfa or corn, and an organic soup producer can't use any GMO ingredients.''    The reason, Mr. Chairman, that I raise this point is because it is frustrating to me that USDA already has this, what I would call a great voluntary tool for consumers to know what is in the food and products that they purchase, but that some jurisdictions feel compelled to impose duplicative, costly, and mandatory burdens on consumers and producers that, as far as can be seen from the USDA's own blog, add no additional benefit. So ultimately, I believe this Congress and this Committee will likely have to consider legislation to ensure that our farmers, ranchers, growers, producers, and families aren't harmed by these costly unworkable rules. And that is not necessarily a question, but just a statement, and I wanted to make sure I got that in the record.    And with that, Mr. Chairman, I would yield back.    The Chairman. Let the record show the gentleman yielded back 3 minutes of time.    Thank you, Mr. Newhouse.    And I want to go ahead and get into a few more questions with you, Dr. Morris. And we are waiting on possibly another Member to get here to ask a few questions.    Obviously, there has been a lot of discussion about H.R. 1599, and I would like to know, has the USDA taken a look at the USDA-related portions of H.R. 1599, the Pompeo-Butterfield bill?</t>
@@ -644,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1853 +710,2163 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95344.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412505</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DelBene</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>412417</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Scott</t>
@@ -680,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +697,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2160 +722,2316 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
